--- a/time_formatted.xlsx
+++ b/time_formatted.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\BeReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{F8CA5737-3253-4923-8C32-672CEE312FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D167FE-BE00-4255-8084-6927601A63C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4725" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="25170" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -81,8 +81,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,10 +429,16 @@
       <c r="A3" s="2">
         <v>44695</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.78819444444444453</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44696</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.58194444444444449</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/time_formatted.xlsx
+++ b/time_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\BeReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D167FE-BE00-4255-8084-6927601A63C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993D555-AF22-4E71-A51D-276CD306AE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="25170" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,10 +445,16 @@
       <c r="A5" s="2">
         <v>44697</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.80486111111111114</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44698</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.74861111111111101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
